--- a/data/获取数据/政策导向指标/非国企20年数据/301489.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/301489.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>思泉新材</t>
   </si>
   <si>
-    <t>301489</t>
-  </si>
-  <si>
     <t>2023-10-24</t>
   </si>
   <si>
@@ -86,6 +110,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>任泽明</t>
+  </si>
+  <si>
+    <t>任泽明;深圳众森投资合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -443,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,16 +525,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301489</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>71</v>
@@ -531,331 +594,360 @@
         <v>76.13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301489</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3">
+        <v>1515</v>
+      </c>
+      <c r="S3">
+        <v>26.26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3">
+        <v>58.43110303302331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>301489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>63.68</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>80.56999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>100.78</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>62.53</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>104672</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>773861509</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>54.53</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>14.85</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>10.42</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>76.54000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301489</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>72</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>81</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>89.94</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>71.09999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>94521</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>759012323</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>23.38</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>0.53</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0.43</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>69.12</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301489</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>78</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>96.02</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>121.98</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>75.01000000000001</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>102100</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>1047847555</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>57.99</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>18.54</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>15.02</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>74.66</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301489</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>86.97</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>79.5</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>94.98999999999999</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>78.22</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>88480</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>746284523</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>17.47</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-17.2</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-16.52</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>64.7</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301489</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>75.56999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>70.18000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>77.33</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>70.06999999999999</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>71930</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>529112672</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>9.130000000000001</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-11.72</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-9.32</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>52.6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301489</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>69</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>66.05</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>69.86</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>65.65000000000001</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>51439</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>346297110</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>-5.88</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-4.13</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>37.61</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
+      <c r="B10">
+        <v>301489</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>67.37</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>67.01000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>69.48</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>66.64</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>53837</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>365489827</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>4.3</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>1.45</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.96</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>39.37</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301489</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>65</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>66.64</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>68.38</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>63.05</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>50030</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>328658018.09</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>7.95</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-0.55</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-0.37</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>36.58</v>
       </c>
     </row>
